--- a/Test_fajlovi/test3_xlsx.xlsx
+++ b/Test_fajlovi/test3_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3eka\Documents\Faks\Nepolozeni\III godina\Skript jezici\Domaci3-Ruby\Domaci_test\Skript-Ruby\Test_fajlovi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C3AFB7-F379-4423-89FF-743EA5E0FC74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8901E4-AA4A-416D-9352-1421E0D91B2B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -101,11 +101,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -129,6 +155,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -574,7 +609,7 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="8" t="str">
+      <c r="B8" s="9" t="str">
         <f t="shared" si="0"/>
         <v>006</v>
       </c>
@@ -586,7 +621,7 @@
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3">
         <v>42742</v>
       </c>
@@ -1574,16 +1609,9 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
-        <v>90</v>
-      </c>
-      <c r="B92" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>090</v>
-      </c>
-      <c r="C92" s="3">
-        <v>42825</v>
-      </c>
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -1706,54 +1734,107 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="8">
+        <v>101</v>
+      </c>
+      <c r="B103" s="8" t="str">
+        <f t="shared" ref="B103:B112" si="2">TEXT(A103, "000")</f>
+        <v>101</v>
+      </c>
+      <c r="C103" s="3">
+        <v>42836</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="4"/>
-      <c r="C104" s="5"/>
+      <c r="A104" s="8">
+        <v>102</v>
+      </c>
+      <c r="B104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="3">
+        <v>42837</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="4"/>
-      <c r="B105" s="4"/>
-      <c r="C105" s="5"/>
+      <c r="A105" s="8">
+        <v>103</v>
+      </c>
+      <c r="B105" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="C105" s="3">
+        <v>42838</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="4"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="8"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="5"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="4"/>
-      <c r="B108" s="4"/>
-      <c r="C108" s="5"/>
+      <c r="A108" s="8">
+        <v>106</v>
+      </c>
+      <c r="B108" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="C108" s="3">
+        <v>42841</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="4"/>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5"/>
+      <c r="A109" s="8">
+        <v>107</v>
+      </c>
+      <c r="B109" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="C109" s="3">
+        <v>42842</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="4"/>
-      <c r="B110" s="4"/>
-      <c r="C110" s="5"/>
+      <c r="A110" s="8">
+        <v>108</v>
+      </c>
+      <c r="B110" s="11"/>
+      <c r="C110" s="3">
+        <v>42843</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="4"/>
-      <c r="C111" s="5"/>
+      <c r="A111" s="8">
+        <v>109</v>
+      </c>
+      <c r="B111" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="C111" s="3">
+        <v>42844</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="4"/>
-      <c r="C112" s="5"/>
+      <c r="A112" s="8">
+        <v>110</v>
+      </c>
+      <c r="B112" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="C112" s="3">
+        <v>42845</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -3706,8 +3787,10 @@
       <c r="C502" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B109:B110"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
